--- a/biology/Histoire de la zoologie et de la botanique/Barrie_G.M._Jamieson/Barrie_G.M._Jamieson.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Barrie_G.M._Jamieson/Barrie_G.M._Jamieson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Barrie G. M. Jamieson (Barrie Gillean Molyneux Jamieson), (31 août 1934-), biologiste australien, est un des plus grands spécialistes actuels de l'évolution et de la taxonomie des vers de terre, dans le monde et notamment d'Asie du Sud-Est et d'Océanie.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,17 +553,90 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">1955-1959
-1. Jamieson, B.G.M. 1957. Some species of Pygmaeodrilus (Oligochaeta) from East Africa. Annals and Magazine of Natural History, Series 12, 10, 449-470.
-1960-1964
-2. Jamieson, B.G.M. 1962a. A redescription of Gordiodriluspaski Stephenson (Oligochaeta). Annals and Magazine of Natural History, Series 13, 4, 519-527.
+          <t>1955-1959</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1. Jamieson, B.G.M. 1957. Some species of Pygmaeodrilus (Oligochaeta) from East Africa. Annals and Magazine of Natural History, Series 12, 10, 449-470.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Barrie_G.M._Jamieson</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Barrie_G.M._Jamieson</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste complète des travaux de Barrie G. M. Jamieson</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1960-1964</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2. Jamieson, B.G.M. 1962a. A redescription of Gordiodriluspaski Stephenson (Oligochaeta). Annals and Magazine of Natural History, Series 13, 4, 519-527.
 3. Jamieson, B.G.M. 1962b. New species of Ocnerodrilinae (Oligochaeta). Proceedings of the Zoological Society of London 139, 607-626.
 4. Jamieson, B.G.M. 1962c. Material of Gordiodrilus (Oligochaeta) in the British Museum (Natural History). Annals and Magazine of Natural History, Series 13, 5, 47-55.
 5. Jamieson, B.G.M. 1963a. Material of Gordiodrilus (Oligochaeta) in the Zoological Museum, Hamburg. Mitteilungen aus dem zoologisches Museum, Hamburg 60, 43-55.
 6. Jamieson, B.G.M. 1963b. A revision of the genus Gordiodrilus Beddard (Oligochaeta : Megascolecidae). Bulletin of the British Museum (Natural History) Zoology 9, 297-323.
-7. Jamieson, B.G.M. 1963c. A revision of the earthworm genus Digaster (Megascolecidae, Oligochaeta). Records of the Australian Museum 26, 83-111.
-1965-1969
-8. Jamieson, B.G.M. 1965a. Two Ocnerodrilinae (Megascolecidae, Oligochaeta) from East Africa: Nematogenia lacuum (Beddard 1893) and Pygmaeodrilus montiskenyae sp. n. Annals and Magazine of Natural History, Series 13, 8, 95-107.
+7. Jamieson, B.G.M. 1963c. A revision of the earthworm genus Digaster (Megascolecidae, Oligochaeta). Records of the Australian Museum 26, 83-111.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Barrie_G.M._Jamieson</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Barrie_G.M._Jamieson</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste complète des travaux de Barrie G. M. Jamieson</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1965-1969</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>8. Jamieson, B.G.M. 1965a. Two Ocnerodrilinae (Megascolecidae, Oligochaeta) from East Africa: Nematogenia lacuum (Beddard 1893) and Pygmaeodrilus montiskenyae sp. n. Annals and Magazine of Natural History, Series 13, 8, 95-107.
 9. Jamieson, B.G.M. 1965b. Recognizing Australian earthworms. Australian Natural History, June 1965, 15, 39-43.
 10. Jamieson, B.G.M. 1966a. Parahemiurus bennettae n. sp. (Digenea), a hemiurid trematode progenetic in Salinator fragilis Lamarck (Gastropoda, Amphibolidae). Proceedings of the Royal Society of Queensland 77, 73-80.
 11. Jamieson, B.G.M. 1966b. Larval stages of the progenetic trematode Parahemiurus bennettae Jamieson, 1966 (Digenea, Hemiuridae) and the evolutionary origin of cercariae. Proceedings of the Royal Society of Queensland 77, 81-92.
@@ -559,9 +646,43 @@
 15. Jamieson, B.G.M. 1968b. A new species of Glyphidrilus (Microchaetidae: Oligochaeta) from East Africa. Journal of Natural History 2, 387-395.
 16. Jamieson, B.G.M. 1968c. A taxonometric investigation of the Alluroididae (Oligochaeta). Journal of Zoology, London 155, 55- 86.
 17. Jamieson, B.G.M. 1969a. A new Egyptian species of Chuniodrilus (Eudrilidae, Oligochaeta) with observations on internal fertilization and parallelism with the genus Stuhlmannia. Journal of Natural History 3, 41-51.
-18. Jamieson, B.G.M. and Ghabbour, S.I. 1969b. The genus Alma (Microchaetidae: Oligochaeta) in Egypt and the Sudan. Journal of Natural History 3, 471-484.
-1970-1974
-19. Jamieson, B.G.M. 1970a. A Revision of the Australian earthworm genus Woodwardiella with descriptions of two new genera (Megascolecidae: Oligochaeta). Journal of Zoology, London 162, 99-144.
+18. Jamieson, B.G.M. and Ghabbour, S.I. 1969b. The genus Alma (Microchaetidae: Oligochaeta) in Egypt and the Sudan. Journal of Natural History 3, 471-484.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Barrie_G.M._Jamieson</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Barrie_G.M._Jamieson</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste complète des travaux de Barrie G. M. Jamieson</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1970-1974</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>19. Jamieson, B.G.M. 1970a. A Revision of the Australian earthworm genus Woodwardiella with descriptions of two new genera (Megascolecidae: Oligochaeta). Journal of Zoology, London 162, 99-144.
 20. Jamieson, B.G.M. 1970b. Two new sympatric species of the earthworm genus Digaster (Megascolecidae: Oligochaeta) from Queensland. Proceedings of the Royal Society of Queensland 82, 35-46.
 21. Jamieson, B.G.M. 1970c. A taxonomic revision of the oligochaete genus Eukerria Michaelsen, 1935 (Ocnerodrilinae, Megascolecidae). Bulletin of the British Museum (Natural History) Zoology 20, 131-172.
 22. Jamieson, B.G.M. 1971a. A review of the megascolecoid earthworm genera (Oligochaeta) of Australia. Part I - Reclassification and checklist of the megascolecoid genera of the world. Proceedings of the Royal Society of Queensland 82, 75-86.
@@ -580,9 +701,43 @@
 35. Jamieson, B.G.M. 1974a. The indigenous earthworms (Megascolecidae : Oligochaeta) of Tasmania. Bulletin of the British Museum (Natural History) Zoology 26, 201-328.
 36. Jamieson, B.G.M. 1974b. Earthworms (Oligochaeta: Megascolecidae) from South Australia. Transactions of the Royal Society of South Australia 98, 79-112.
 37. Jamieson, B.G.M. 1974c. The zoogeography and evolution of Tasmainian Oligochaeta. In Biogeography and Ecology in Tasmania. Williams, W. ed. pp. 195–228. The Hague, Dr. W. Junk.
-38. Jamieson, B.G.M. 1974d. Generic type-species and other Megascolecidae (Annelida, Oligochaeta) in the Museum of Systematic Zoology, University of Turin. Bollettino del Museo di Zoologia dell' Università di Torino 8, 57-88.
-1975-1979
-39. Jamieson, B.G.M. 1975a. The earthworm genus Oreoscolex (Oligochaeta: Megascolecidae) in New South Wales. Records of the Australian Museum 29, 245-260.
+38. Jamieson, B.G.M. 1974d. Generic type-species and other Megascolecidae (Annelida, Oligochaeta) in the Museum of Systematic Zoology, University of Turin. Bollettino del Museo di Zoologia dell' Università di Torino 8, 57-88.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Barrie_G.M._Jamieson</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Barrie_G.M._Jamieson</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste complète des travaux de Barrie G. M. Jamieson</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1975-1979</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>39. Jamieson, B.G.M. 1975a. The earthworm genus Oreoscolex (Oligochaeta: Megascolecidae) in New South Wales. Records of the Australian Museum 29, 245-260.
 40. Jamieson, B.G.M. 1975b. Catalogue of the named Megascolecidae (Oligochaeta : Annelida) in the National Museum of Natural History, Paris. Bulletin du Museum National d'Histoire Naturelle, 3e Série, no. 286, Zoologie 196, 129-154.
 41. Jamieson, B.G.M. 1975c. The genus Digaster (Megascolecidae: Oligochaeta) in Queensland. Memoirs of the Queensland Museum 17, 267-292.
 42. Jamieson, B.G.M. and Nash, W. 1976a. The first record of Plutellus (Megascolecidae:Oligochaeta) in Queensland P. incommodus and P. raveni spp. nov. Proceedings of the Royal Society of Queensland 87, 45-52.
@@ -600,9 +755,43 @@
 54. Jamieson, B.G.M. 1978d. A comparison of spermiogenesis and spermatozoal ultrastructure in megascolecid and lumbricid earthworms (Oligochaeta : Annelida). Australian Journal of Zoology26, 225-240.
 55. Jamieson, B.G.M. and Bennett J.D. 1979a. New species of Acanthodrilinae and a new genus of Perionychini (Oligochaeta, Megascolecidae), from New Caledonia, their phylogeny and zoogeography. Bulletin du Muséum National d'Histoire Naturelle, 4e Série 1, section A, 353-403.
 56. Jamieson, B.G.M. and Wampler, J.E. 1979b. Bioluminescent Australian earthworms. II. Taxonomy and preliminary report of bioluminescence in the genera Spenceriella, Fletcherodrilus and Pontodrilus (Megascolecidae: Oligochaeta). Australian Journal of Zoology 27, 637-669.
-57. Jamieson, B.G.M. and Daddow, L. 1979c. An ultrastructural study of microtubules and the acrosome in spermiogenesis of Tubificidae (Oligochaeta). Journal of Ultrastructure Research 67, 209-224.
-1980-1984
-58. Wampler, J.E. and Jamieson, B.G.M. 1980a. Earthworm bioluminescence: comparative physiology and biochemistry. Comparative Biochemistry and Physiology 66B, 43-50.
+57. Jamieson, B.G.M. and Daddow, L. 1979c. An ultrastructural study of microtubules and the acrosome in spermiogenesis of Tubificidae (Oligochaeta). Journal of Ultrastructure Research 67, 209-224.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Barrie_G.M._Jamieson</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Barrie_G.M._Jamieson</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste complète des travaux de Barrie G. M. Jamieson</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1980-1984</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>58. Wampler, J.E. and Jamieson, B.G.M. 1980a. Earthworm bioluminescence: comparative physiology and biochemistry. Comparative Biochemistry and Physiology 66B, 43-50.
 59. Jamieson, B.G.M., Daddow, L. and Bennett, J. 1980b. Some aspects of the ultrastructure of the acrosome of the Tubificidae (Annelida, Oligochaeta). Pedobiologia 20, 146.
 60. Jamieson, B.G.M. 1980c. Preliminary observations on spermiogenesis and spermatozoal ultrastructure in megascolecid earthworms and a comparison with the Lumbricidae. Pedobiologia 20, 146.
 61. Jamieson, B.G.M. 1980d. Preliminary discussion of an Hennigian analysis of the phylogeny and systematics of opisthoporous oligochaetes. Pedobiologia 20, 149.
@@ -625,9 +814,43 @@
 78. Ferraguti, M. and Jamieson, B.G.M. 1984a. Spermiogenesis and spermatozoal ultrastructure in Hormogaster (Hormogastridae, Oligochaeta, Annelida). Journal of Submicroscopic Cytology 16, 307-316.
 79. Jamieson, B.G.M. 1984b. A phenetic and cladistic study of spermatozoal ultrastructure in the Oligochaeta (Annelida). Hydrobiologia 115, 3-13.
 80. Jamieson, B.G.M. 1984c. Spermatozoal ultrastructure in Branchiostomamoretonensis Kelly, a comparison with B. lanceolatum (Cephalochordata) and with other deuterostomes. Zoologica Scripta 13, 223-229.
-81. Jamieson, B.G.M. and Webb, R.I. 1984d. The morphology, spermatozoal ultrastructure and phylogenetic affinities of a new species of questid (Polychaeta; Annelida). In Proceedings of the First International Polychaete Conference, Sydney. Hutchings, P.A. ed. pp. 21–34. The Linnean Society of New South Wales, Sydney.
-1985-1989
-82. Jamieson, B.G.M. 1985a. The Spermatozoa of the Holothuroidea (Echinodermata): an ultrastructural review with data on two Australian species and phylogenetic discussion. Zoologica Scripta 14, 123-135.
+81. Jamieson, B.G.M. and Webb, R.I. 1984d. The morphology, spermatozoal ultrastructure and phylogenetic affinities of a new species of questid (Polychaeta; Annelida). In Proceedings of the First International Polychaete Conference, Sydney. Hutchings, P.A. ed. pp. 21–34. The Linnean Society of New South Wales, Sydney.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Barrie_G.M._Jamieson</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Barrie_G.M._Jamieson</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste complète des travaux de Barrie G. M. Jamieson</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1985-1989</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>82. Jamieson, B.G.M. 1985a. The Spermatozoa of the Holothuroidea (Echinodermata): an ultrastructural review with data on two Australian species and phylogenetic discussion. Zoologica Scripta 14, 123-135.
 83. Jamieson, B.G.M., Afzelius, B.A. and Franzén, A. 1985b. Ultrastructure of the acentriolar, aflagellate spermatozoa and the eggs of Histriobdella homari and Stratiodrilus novaehollandiae (Histriobdellidae, Polychaeta). Journal of Submicroscopic Cytology 17, 363-380.
 84. Wampler, J.E. and Jamieson, B.G.M. 1986a. Cell bound bioluminescence from Pontodrilus bermudensis, and its similarities to other earthworm bioluminescence. Comparative Biochemistry and Physiology 84A, 81-87.
 85. Jamieson, B.G.M. 1986b. Onychophoran-euclitellate relationships: evidence from spermatozoal ultrastructure. Zoologica Scripta 15, 141-155.
@@ -647,9 +870,43 @@
 99. Healy, J.M. and Jamieson, B.G.M. 1989e. An ultrastructural study of spermatozoa of Helix aspersa and Helix pomatia (Gastropoda, Pulmonata). Journal of Molluscan Studies 55, 389-404.
 100. Pettigrew, J.D., Jamieson, B.G.M., Robson, S., Hall, L., McAnally, K. and Cooper, H. 1989f. Phylogenetic relations between microbats, megabats and primates (Mammalia: Chiroptera and Primates). Philosophical Transactions of the Royal Society of London, B 325, 489-559.
 101. Jamieson, B.G.M. 1989g. Complex spermatozoon of the live-bearing half-beak, Hemirhamphodon pogonognathus (Bleeker): ultrastructural description (Euteleostei, Atherinomorpha, Beloniformes). Gamete Research 24, 247-259.
-102. Jamieson, B.G.M. 1989h. A comparison of the spermatozoa of Oratosquilla stephensoni and Squilla mantis (Crustacea, Stomatopoda) with comments on the phylogeny of the Malacostraca. Zoologica Scripta 18, 509-517.
-1990-1994
-103. Jamieson, B.G.M. 1990a. The ultrastructure of the spermatozoa of Petalomera lateralis (Gray) (Crustacea, Brachyura, Dromiacea) and its phylogenetic significance. Invertebrate Reproduction and Development 17, 39-45.
+102. Jamieson, B.G.M. 1989h. A comparison of the spermatozoa of Oratosquilla stephensoni and Squilla mantis (Crustacea, Stomatopoda) with comments on the phylogeny of the Malacostraca. Zoologica Scripta 18, 509-517.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Barrie_G.M._Jamieson</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Barrie_G.M._Jamieson</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liste complète des travaux de Barrie G. M. Jamieson</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1990-1994</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>103. Jamieson, B.G.M. 1990a. The ultrastructure of the spermatozoa of Petalomera lateralis (Gray) (Crustacea, Brachyura, Dromiacea) and its phylogenetic significance. Invertebrate Reproduction and Development 17, 39-45.
 104. Jamieson, B.G.M. and Tudge, C.C. 1990b. Dorippids are Heterotremata: evidence from ultrastructure of the spermatozoa of Neodorippe astuta (Dorippidae) and Portunus pelagicus (Portunidae) Brachyura: Decapoda. Marine Biology 106, 347-354.
 105. Jamieson, B.G.M. 1989b. The ultrastructure of the spermatozoa of four species of Xanthid crabs (Crustacea, Brachyura, Xanthidae). Journal of Submicroscopic Cytology and Pathology 21, 579-584.
 106. Tudge, C.C. and Jamieson, B.G.M. (1991). Ultrastructure of the mature spermatozoon of the Coconut Crab, Birgus latro (Coenobitidae, Paguroidea, Decapoda). Marine Biology 108, 395-402.
@@ -688,9 +945,43 @@
 139. Jamieson, B.G.M. 1994i. Chapter 40. Echinoderms and Chordates. In Biology. Knox, B., Ladiges, P. and Evans, B. eds. pp 879–903. McGraw-Hill Book Company, Sydney.
 140. Jamieson, B.G.M. 1994j. Phylogeny of the Brachyura with particular reference to the Podotremata: evidence from a review of spermatozoal ultrastructure (Crustacea, Decapoda). Philosophical Transactions of the Royal Society London, B 345, 373-393.
 141. Jamieson, B.G.M. and Koehler, L. 1994k. The ultrastructure of the spermatozoon of the Northern Water Snake, Nerodia sipedon (Colubridae, Serpentes), with phylogenetic considerations. Canadian Journal of Zoology 72, 1648-1652.
-142. Jamieson, B.G.M. 1994l. Some earthworms from the wet tropics and from Bunya mountains, Queensland (Megascolecidae: Oligochaeta). Memoirs of the Queensland Museum 37, 157-181.
-1995-1999
-143. Jamieson, B.G.M., Koehler, L. and Todd, B.J. 1995a. Spermatozoal ultrastructure in three species of parrots (Aves, Psittaciformes) and its phylogenetic implications. Anat. Rec. 241, 461-468.
+142. Jamieson, B.G.M. 1994l. Some earthworms from the wet tropics and from Bunya mountains, Queensland (Megascolecidae: Oligochaeta). Memoirs of the Queensland Museum 37, 157-181.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Barrie_G.M._Jamieson</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Barrie_G.M._Jamieson</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Liste complète des travaux de Barrie G. M. Jamieson</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1995-1999</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>143. Jamieson, B.G.M., Koehler, L. and Todd, B.J. 1995a. Spermatozoal ultrastructure in three species of parrots (Aves, Psittaciformes) and its phylogenetic implications. Anat. Rec. 241, 461-468.
 144. Jamieson, B.G.M. 1995b. New species and a new genus of earthworms in the collections of the Queensland Museum (Megascolecidae: Oligochaeta). Memoirs of the Queensland Museum 38, 575-596.
 145. Jamieson, B.G.M. 1995c. The ultrastructure of spermatozoa of the Squamata (Reptilia) with phylogenetic considerations. In Advances in Spermatozoal Phylogeny and Taxonomy. Jamieson, B.G.M., Ausio, J. and Justine, J.-L. eds. pp. 359–383. Mémoires du Muséum national d'Histoire Naturelle, vol. 166, Paris.
 146. Jamieson, B.G.M., Guinot, D. and Richer de Forges, B. 1995d. Phylogeny of the Brachyura (Crustacea, Decapoda): evidence from spermatozoal ultrastructure. In Advances in Spermatozoal Phylogeny and Taxonomy. Jamieson, B.G.M., Ausio, J. and Justine, J.-L. eds. pp. 265–283. Mémoires du Muséum national d'Histoire Naturelle, vol. 166, Paris.
@@ -706,7 +997,172 @@
 156. Jamieson, B.G.M., Scheltinga, D.M. and Tucker, A.D. 1997c. The ultrastructure of spermatozoa of the Australian freshwater crocodile, Crocodylus johnstoni Krefft, 1873 (Crocodylidae, Reptilia). Journal of Submicroscopic Cytology and Pathology 29, 265-274.
 157. Jamieson, B.G.M., Guinot, D., Tudge, C.C. and Richer de Forges, B. 1997d. Ultrastructure of the spermatozoa of Corystes cassivelaunus (Corystidae), Platepistoma nanum (Cancridae) and Cancer pagurus (Cancridae) supports recognition of the Corystoidea (Crustacea, Brachyura, Heterotremata). Helgolander Meeresuntersuchungen 51, 83-93.
 158. Mollaret, I., Jamieson, B.G.M., Hugall, A. and Justine, J.-L. 1997e. Non-monophylie des Monogenea et phylogénie des Plathelminthes parasites: une étude basée sur l’ADN 28S. Société Française de Parasitolgie, 8-9 décembre 1997, UFR Cochin Port-Royal, Paris, ABSTRACT.
-159. Meyer, E., Jamieson, B.G.M. and Scheltinga, </t>
+159. Meyer, E., Jamieson, B.G.M. and Scheltinga, D.M. 1997f. Sperm ultrastructure of six Australian hylid frogs from two genera (Litoria and Cyclorana): phylogenetic implications. Journal of Submicroscopic Cytology and Pathology 29, 443-451.
+160. Richer de Forges, B., Jamieson, B.G.M., Guinot, D. and Tudge, C.C. 1997g. Ultrastructure of the spermatozoa of Hymenosomatidae (Crustacea: Brachyura) and the relationships of the family. Marine Biology 130, 233-242.
+161. Mollaret, I., Jamieson, B.G.M., Adlard, R.D., Hugall, A., Lecointre, G., Chombard, C. and Justine, J.-L. 1997h. Phylogenetic analysis of the Monogenea and their relationships with Digenea and Eucestoda inferred from 28S rDNA sequences. Molecular and Biochemical Parasitology 90, 433-438.
+162. Guinot, D., Jamieson, B.G.M., Richer de Forges, B. and Tudge, C.C. 1998a. Comparative spermatozoal ultrastructure of the three dromiacean families exemplified by Homolodromia kai (Homolodromiidae), Sphaerodromia lamellata (Dromiidae), and Dynomene tanensis (Dynomenidae) (Podotremata: Brachyura). Journal of Crustacean Biology 18, 78-94.
+163. Tudge, C.C., Jamieson, B.G.M., Sandberg, L. and Erseus, C. 1998b. Ultrastructure of the mature spermatozoon of the King Crab Lithodes maja (Lithodidae, Anomala, Decapoda): further confirmation of a lithodid-pagurid relationship. Invertebrate Biology 117, 57-66.
+164. Tudge, C.C., Scheltinga, D.M. and Jamieson, B.G.M. 1998c. Spermatozoal ultrastructure in the spiny lobster Jasus novaehollandiae Holthuis, 1963 (Palinuridae, Palinura, Decapoda). Journal of Morphology 236, 117-126.
+165. Dyne, G.R. and Jamieson, B.G.M. 1998e. Two new semi-aquatic species of Diplotrema (Oligochaeta: Megascolecidae: Acanthodrilinae), with a re-description of the type species. Memoirs of the Queensland Museum 42, 487-493.
+166. Tudge, C.C., Jamieson, B.G.M., Segonzac, M. and Guinot, D. 1998f. Spermatozoal ultrastructure in three species of hydrothermal vent crabs, in the genera Bythograea, Austinograea and Segonzacia (Decapoda, Brachyura, Bythograeidae). Invertebrate Reproduction and Development 34, 13-23.
+167. Jamieson, B.G.M., Scheltinga, D.M. and Richer de Forges, B. 1998g. An ultrastructural study of spermatozoa of the Majidae with particular reference to the  spermatozoon of Macropodia longirostris (Crustacea, Decapoda, Brachyura).  Acta Zoologica (Stockholm) 79(3), 193-206.
+168. Boury-Esnault, N. and Jamieson, B.G.M. 1999a. Porifera. In Reproductive Biology of Invertebrates. Volume IX. Progress in Male Gamete Ultrastructure and Phylogeny. Part A. B.G.M. Jamieson (Volume ed.), K.G. Adiyodi and R.G. Adiyodi (Series eds). pp. 1–20. John Wiley &amp; Sons, Chichester. http://catalog.wiley.com/
+169. Harrison, P.L. and Jamieson, B.G.M. 1999b. Cnidaria and Ctenophora. In Reproductive Biology of Invertebrates. Volume IX. Progress in Male Gamete Ultrastructure and Phylogeny. Part A. B.G.M. Jamieson (Volume ed.), K.G. Adiyodi and R.G. Adiyodi (Series eds). pp. 21–95. John Wiley &amp; Sons, Chichester.
+170. Tudge, C.C., Scheltinga, D.M. and Jamieson, B.G.M. 1999c. Spermatozoal ultrastructure in the Hippoidea (Anomura, Decapoda). Journal of Submicroscopic Cytology and Pathology 31, 1-13.
+171. Jamieson, B.G.M. 1999d. Spermatozoal phylogeny of the Vertebrata. In The Male Gamete: From Basic Science to Clinical Applications. C. Gagnon (ed.). Chapter 29, pp. 303–331. Cache River Press, Vienna (USA).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Barrie_G.M._Jamieson</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Barrie_G.M._Jamieson</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Liste complète des travaux de Barrie G. M. Jamieson</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2000-2004</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>172. Storch, V., Kempendorf, C., Higgins, R.P., Shirley, T.C. and Jamieson, B.G.M. 2000a. Priapulida. In Reproductive Biology of Invertebrates. Volume IX. Progress in Male Gamete Ultrastructure and Phylogeny. Part B. B.G.M. Jamieson (Volume ed.), K.G. Adiyodi and R.G. Adiyodi (Series eds). pp. 1–19.  John Wiley &amp; Sons, Chichester. http://catalog.wiley.com/
+173. Justine, J.-L. and Jamieson, B.G.M. 2000b. Nematoda. In Reproductive Biology of Invertebrates. Volume IX. Progress in Male Gamete Ultrastructure and Phylogeny. Part B. B.G.M. Jamieson (Volume ed.), K.G. Adiyodi and R.G. Adiyodi (Series eds). pp. 183–266.  John Wiley &amp; Sons, Chichester. http://catalog.wiley.com/
+174. Storch, V., Ruhberg, H., Alberti, G. and Jamieson, B.G.M. 2000c. Onychophora. In Reproductive Biology of Invertebrates. Volume IX. Progress in Male Gamete Ultrastructure and Phylogeny. Part B. B.G.M. Jamieson (Volume ed.), K.G. Adiyodi and R.G. Adiyodi (Series eds). pp. 293–310.  John Wiley &amp; Sons, Chichester. http://catalog.wiley.com/
+175. Jamieson, B.G.M. and Tudge, C.C. 2000d. Crustacea-Decapoda. In Reproductive Biology of Invertebrates. Volume IX. Progress in Male Gamete Ultrastructure and Phylogeny. Part C. B.G.M. Jamieson (Volume ed.), K.G. Adiyodi and R.G. Adiyodi (Series eds). pp. 1–95.  John Wiley &amp; Sons, Chichester. http://catalog.wiley.com/
+176. Jamieson, B.G.M. and Storch, V. 2000e. Pentastomida. In Reproductive Biology of Invertebrates. Volume IX. Progress in Male Gamete Ultrastructure and Phylogeny. Part C. B.G.M. Jamieson (Volume ed.), K.G. Adiyodi and R.G. Adiyodi (Series eds). pp. 97–115.  John Wiley &amp; Sons, Chichester. http://catalog.wiley.com/
+177. Jamieson, B.G.M. 2000f. Lophophorata. In Reproductive Biology of Invertebrates. Volume IX. Progress in Male Gamete Ultrastructure and Phylogeny. Part C. B.G.M. Jamieson (Volume ed.), K.G. Adiyodi and R.G. Adiyodi (Series eds). pp. 143–161.  John Wiley &amp; Sons, Chichester. http://catalog.wiley.com/
+178. Jamieson, B.G.M. 2000g. Echinodermata. In Reproductive Biology of Invertebrates. Volume IX. Progress in Male Gamete Ultrastructure and Phylogeny. Part C. B.G.M. Jamieson (Volume ed.), K.G. Adiyodi and R.G. Adiyodi (Series eds). pp. 163–246.  John Wiley &amp; Sons, Chichester. http://catalog.wiley.com/
+179. Jamieson, B.G.M. 2000h. Chordata-Hemichordata. In Reproductive Biology of Invertebrates. Volume IX. Progress in Male Gamete Ultrastructure and Phylogeny. Part C. B.G.M. Jamieson (Volume ed.), K.G. Adiyodi and R.G. Adiyodi (Series eds). pp. 247–260.  John Wiley &amp; Sons, Chichester. http://catalog.wiley.com/
+180. Jamieson, B.G.M. 2000i. Cephalochordata. In Reproductive Biology of Invertebrates. Volume IX. Progress in Male Gamete Ultrastructure and Phylogeny. Part C. B.G.M. Jamieson (Volume ed.), K.G. Adiyodi and R.G. Adiyodi (Series eds). pp. 299–314.  John Wiley &amp; Sons, Chichester. http://catalog.wiley.com/
+181. Mollaret, I., Jamieson, B.G.M., Justine, J.-L., 2000j. Phylogeny of the Monopisthocotylea and  Polyopisthocotylea (Platyhelminthes) inferred from 28S rDNA sequences. International Journal for Parasitology  30, 171-185.
+182. Schelting, D.M.,  Jamieson, B.G.M.,  Trauth, S.E. and McAllister, C.T. 2000k. Morphology of the spermatozoa of the iguanian lizards Uta stansburiana and Urosaurus ornatus (Squamata, Phrynosomatidae). Journal-of-Submicroscopic-Cytology-and-Pathology. [print] April, 2000; 32 (2): 261-271.
+183. Buckland-Nicks, J.A.,  Healy, J.M., Jamieson, B.G.M.,  O'-Leary, S.  2000h. Paraspermatogenesis in Littoraria (Palustorina) articulata, with reference to other Littorinidae (Littorinoidea, Caenogastropoda).  Invertebrate-Biology. [print] 2000; 119 (3): 254-264.
+184. Scheltinga, D.M., Jamieson, B.G.M., Espinoza, R.E. and Orrell, K.S. 2001a. Descriptions of the mature spermatozoa of the lizards Crotaphytus bicinctores, Gambelia wislizenii (Crotaphytidae) and Anolis carolinensis (Polychrotidae) (Reptilia, Squamata, Iguania). Journal of Morphology 247, 160-171.
+185. Scheltinga, D.M., Jamieson, B.G.M., Eggers, K.E. and Green, D.M. 2001b. Ultrastructure of the spermatozoon of Leiopelma hochstetteri (Amphibia, Anura, Leiopelmatidae). Zoosystema 23, 157-171.
+186. Tudge, C.C., Scheltinga, D.M. and B.G.M. Jamieson. 2001c. Spermatozoal morphology in the "symmetrical" hermit crab, Pylocheles (Bathycheles) sp. (Crustacea, Decapoda, Anomura, Paguroidea, Pylochelidae). Zoosystema 23, 117-130.
+187. Jamieson, B.G.M. 2001d. Six species of Megascolecinae  (Megascolecidae : Oligochaeta)  from New South Wales and the Australian Capital Territory. Memoirs of the Queensland Museum 46(2), 589-602.
+188. Healy, J.M., Buckland-Nicks, J.A. and Jamieson, B.G.M. 2001e. Spermatozoal ultrastructure of spiny oysters (Spondylidae, Bivalvia) including a comparison with other bivalves. Invertebrate Reproduction and Development 40 (1), 27-37.
+189. Tudge, C.C. and Scheltinga, D.M. 2002a. Spermatozoal morphology of the freshwater anomuran Aegla longirostri Bond-Buckup &amp; Buckup, 1994 (Crustacea: Decapoda: Aeglidae) from South America. Proceedings of the Biological Society of Washington 115, 118-128.
+190. Scheltinga, D.M., Jamieson, B.G.M. and McDonald, K.R. 2002b. Ultrastructure of the spermatozoa of Litoria  (Hylidae, Anura, Amphibia): modifications for penetration of a gelatinous layer surrounding the arboreal egg clutch. Memoirs of the Queensland Museum 48, 215-220.
+191. Jamieson B. G. M., Tillier S., Tillier A., Justine J. -L., Ling E., James S., McDonald K. &amp; Hugall A. F. 2002. Phylogeny of the Megascolecidae and Crassiclitellata (Annelida, Oligochaeta): combined versus partitioned analysis using nuclear (28S) and mitochondrial (12S, 16S) rDNA. Zoosystema 24 (4), 707-734. http://www.mnhn.fr/publication/zoosyst/z02n4som.html
+192. Johnston, S.D., Daddow, L., Carrick, F.N., Jamieson, B.G.M. and Smith, L. 2003. Cauda epididymidal spermatozoa of the rufous hare wallaby, Lagorchestes hirsutus (Metatheria, Mammalia) imaged by electron and confocal microscopy. Acta Zoologica 84, 139-143.
+193. Scheltinga, D.M., Wilkinson, M., Jamieson, B.G.M. and Oommen V.O. 2003. Ultrastructure of the mature spermatozoa of caecilians (Amphibia: Gymnophiona). Journal of Morphology 258: 179-192.
+194. Scheltinga, D.M. and Jamieson, B.G.M. 2003. The Mature Spermatozoon. pp. 203–274. In  Reproductive Biology and Phylogeny of Urodela. Series Editor B.G.M. Jamieson. Volume Editor D.M. Sever. Science Publishers, Inc., Enfield, New Hampshire, U.S.A. 627 pp.   (ISBN 1-57808-285-4).  http://www.scipub.net/
+195. Scheltinga, D.M. and Jamieson, B.G.M.  2003. Spermatogenesis and the Mature Spermatozoon: Form, Function and Phylogenetic Implications. pp. 119–251. In  Reproductive Biology and Phylogeny of Anura.  Series Editor B.G.M. Jamieson. Volume Editor B.G.M. Jamieson. Science Publishers, Inc., Enfield, New Hampshire, U.S.A.  (ISBN 1-57808-288-9).  http://www.scipub.net/
+196. Johnston, S.D., Daddow, L., Carrick, F.N. and Jamieson, B. 2004. Observations of spermiogenesis and epididymal sperm maturation in the rufous hare wallaby, Lagorchestes hirsutus (Metatheria, Mammalia).  Acta Zoologica 85, 53-58.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Barrie_G.M._Jamieson</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Barrie_G.M._Jamieson</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Liste complète des travaux de Barrie G. M. Jamieson</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2005-</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>197. Jamieson, B.G.M. and Tripepi, S. 2005. Ultrastructure of the spermatozoon of Apus apus (Linnaeus 1758), the common swift (Aves; Apodiformes; Apodidae), with phylogenetic implications. Acta Zoologica (Stockholm) 86: 239-244.
+198. Jamieson, B.G.M. 2006. Non-leech Clitellata. (with contributions by Marco Ferraguti). pp. 235–392. In Reproductive Biology and Phylogeny of Annelida.  Series Editor B.G.M. Jamieson. Volume 4. Editors Greg Rouse and Fredrik Pleijel. Science Publishers, Enfield, New Hampshire, U.S.A. Jersey, Plymouth, U.K.  (ISBN 1-57808-313-3).  http://www.scipub.net/
+199.  Scheltinga, D.M. and Jamieson, B.G.M. 2006. Ultrastructure and phylogeny of caecilian spermatoxoa. pp. 247–274.  In Reproductive Biology and Phylogeny of Gymnophiona (Caecilians).  Series Editor B.G.M. Jamieson. Volume 5. Editor J.-M. Exbrayat. Enfield (NH), USA, Jersey, Plymouth, U.K.   (ISBN 1-57808-312-5 et 978-1-57808-312-1). 2006. http://www.scipub.net/
+200.  Tripepi, S., Jamieson, B.G.M. and Brunelli, E. 2006. Ultrastructure of the spermatid of Caprimulgus europaeus Linnaeus 1758, the European Nightjar (Aves; Caprimulgidae), with phylogenetic implications. Journal of Morphology  267(10): 1157-64.
+201.  Jamieson, B.G.M., Hodgson, A. and Spottiswoode, C.N. 2006. Ultrastructure of the spermatozoon of Myrmecocichla formicivora (Vieillot, 1881) and Philetairus socialis (Latham, 1790) (Aves; Passeriformes), with a new interpretation of the passeridan acrosome. Acta Zoologica (Stockholm) 87: 297–304 (October 2006)
+202. Birkhead, T. R., Giusti, F., Immler, S. &amp; Jamieson, B. G. M.  2006. Ultrastructure of the unusual spermatozoon of the Eurasian bullfinch (Pyrrhula pyrrhula).  Acta Zoologica (Stockholm) (In press).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Barrie_G.M._Jamieson</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Barrie_G.M._Jamieson</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Liste complète des travaux de Barrie G. M. Jamieson</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Books</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>1. Jamieson, B.G.M. and Reynolds, J.F. 1967. Tropical Plant Types. 347 pp. Pergamon Press, Oxford.
+2. Brinkhurst, R.O. and Jamieson, B.G.M. 1971. Aquatic Oligochaeta of the World. 860 pp. Oliver and Boyd, Edinburgh.
+3. Jamieson, B.G.M. 1981. The Ultrastructure of the Oligochaeta. 462 pp. Academic Press, London.
+4. Jamieson, B.G.M. 1987. The Ultrastructure and Phylogeny of Insect Spermatozoa. 320 pp. Cambridge University Press, Cambridge.
+5. Jamieson, B.G.M. 1991. Fish Evolution and Systematics: Evidence from Spermatozoa. 319 pp. Cambridge University Press, Cambridge.
+6. Jamieson, B.G.M., Ausio, J. and Justine, J.-L. (eds). 1995. Advances in Spermatozoal Phylogeny and Taxonomy. Mémoires du Muséum national d'Histoire Naturelle, vol. 166, Paris. 564 pp.
+7. Jamieson, B.G.M., Dallai, R. and Afzelius, B.A. 1999. Insects Their Spermatozoa and Phylogeny. 555 pp. Science Publishers, New Hampshire, U.S.A.
+8. Jamieson, B.G.M. (ed.). 1999. Reproductive Biology of Invertebrates. Volume IX. Progress in Male Gamete Ultrastructure and Phylogeny. Part A. K.G. Adiyodi and R.G. Adiyodi (Series eds). 271 pp. John Wiley &amp; Sons, Chichester.
+9. Jamieson, B.G.M. (ed.). 1999. Reproductive Biology of Invertebrates. Volume IX. Progress in Male Gamete Ultrastructure and Phylogeny. Part B. K.G. Adiyodi and R.G. Adiyodi (Series eds).  pp. John Wiley &amp; Sons, Chichester.
+10. Jamieson, B.G.M. (ed.). 2000. Reproductive Biology of Invertebrates. Volume IX. Progress in Male Gamete Ultrastructure and Phylogeny. Part C. K.G. Adiyodi and R.G. Adiyodi (Series eds). 342 pp. John Wiley &amp; Sons, Chichester.
+11. Native earthworms  of Australia (Megascolecidae, Megascolecinae). Science Publishers, Inc. Enfield, New Hamphsire, U.S.A. (A CD)
+12. Reproductive Biology and Phylogeny of Urodela. Series Editor B.G.M. Jamieson. Volume 1. Editor D.M. Sever. Science Publishers, Inc., Enfield, New Hampshire, U.S.A. 627 pp.   (ISBN 1-57808-285-4).  2003.
+13. Reproductive Biology and Phylogeny of Anura.  Series Editor B.G.M. Jamieson. Volume 2. Editor B.G.M. Jamieson. Science Publishers, Inc., Enfield, New Hampshire, U.S.A.  (ISBN 1-57808-288-9).  2003.
+14. Reproductive Biology and Phylogeny of Chondrichthyes: Sharks, Batoids and Chimaeras.  Series Editor B.G.M. Jamieson. Volume 3. Editor William C. Hamlett. Science Publishers, Inc., Enfield, New Hampshire, U.S.A. Plymouth, U.K.  (ISBN 1-57808-314-1). 2005
+15. G.R. Dyne and B.G.M. Jamieson 2004. Native Earthworms of Australia II (Megascolecidae, Acanthodrilinae). ABRS, Australian Government Department of Environment and Heritage. 200pp.  (ISBN 0 642 56839 1)(CDROM). Available from Australian Biological Resources Study
+16.  Reproductive Biology and Phylogeny of Annelida.  Series Editor B.G.M. Jamieson. Volume 4. Editors Greg Rouse and Fredrik Pleijel. Science Publishers, Enfield, New Hampshire, U.S.A. Jersey, Plymouth, U.K.  (ISBN 1-57808-313-3). 2006.
+17. Reproductive Biology and Phylogeny of Gymnophiona (Caecilians).  Series Editor B.G.M. Jamieson. Volume 5. Editor J.-M. Exbrayat. Enfield (NH), USA, Jersey, Plymouth, U.K.   (ISBN 1-57808-312-5 et 978-1-57808-312-1). 2006.</t>
         </is>
       </c>
     </row>
